--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/classes/Intro-DS-F23/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A2CC52-B7B3-9841-8BA6-A586BAA08FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E11B32F-CE70-F942-B0FC-008F60D25BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="69">
   <si>
     <t>Date</t>
   </si>
@@ -72,19 +72,12 @@
     <t>q1</t>
   </si>
   <si>
-    <t xml:space="preserve">NO CLASS - Ab out of town in morning </t>
-  </si>
-  <si>
     <t xml:space="preserve">Intro to coding (variables, comp arch), R / R Studio / markdown </t>
   </si>
   <si>
     <t>Appendix B, D</t>
   </si>
   <si>
-    <t xml:space="preserve">GUEST SPEAKER -- TODO SCHEDULE
-Julia / Ashley </t>
-  </si>
-  <si>
     <t>hw2</t>
   </si>
   <si>
@@ -139,10 +132,6 @@
     <t xml:space="preserve">Ch 6 </t>
   </si>
   <si>
-    <t>GUEST SPEAKER -- TODO SCHEDULE
-Henri / Adria / Ashley</t>
-  </si>
-  <si>
     <t>q4</t>
   </si>
   <si>
@@ -240,6 +229,18 @@
   </si>
   <si>
     <t>presy</t>
+  </si>
+  <si>
+    <t>Guest Speaker: Data Science for Public Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guest Speaker: Visualizing Boston City Data </t>
+  </si>
+  <si>
+    <t>Guest Speaker: Analyzing the Electrical Grid</t>
+  </si>
+  <si>
+    <t>NO CLASS - Personal Day</t>
   </si>
 </sst>
 </file>
@@ -622,7 +623,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -637,13 +638,13 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -655,16 +656,16 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="6"/>
       <c r="C2" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D2" s="4">
         <v>9.06</v>
@@ -681,7 +682,7 @@
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="6"/>
       <c r="C3" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D3" s="4">
         <v>9.08</v>
@@ -699,7 +700,7 @@
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C4" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D4" s="7">
         <v>9.11</v>
@@ -714,7 +715,7 @@
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="3"/>
       <c r="C5" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D5" s="7">
         <v>9.1300000000000008</v>
@@ -727,9 +728,11 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="7"/>
+      <c r="B6" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="C6" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D6" s="7">
         <v>9.15</v>
@@ -746,19 +749,19 @@
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D7" s="10">
         <v>9.18</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
@@ -767,36 +770,36 @@
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="16"/>
       <c r="C8" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D8" s="4">
         <v>9.1999999999999993</v>
       </c>
       <c r="E8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D9" s="4">
         <v>9.2200000000000006</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>11</v>
@@ -805,280 +808,286 @@
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D10" s="7">
         <v>9.25</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D11" s="7">
         <v>9.27</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D12" s="7">
         <v>9.2899999999999991</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="H12" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D13" s="4">
         <v>10.02</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D14" s="4">
         <v>10.039999999999999</v>
       </c>
       <c r="E14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D15" s="4">
         <v>10.06</v>
       </c>
       <c r="E15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="G15" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D16" s="10">
         <v>10.09</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="18" t="s">
+        <v>40</v>
+      </c>
       <c r="C17" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D17" s="7">
         <v>10.11</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="18" t="s">
+        <v>40</v>
+      </c>
       <c r="C18" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D18" s="7">
         <v>10.130000000000001</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D19" s="4">
         <v>10.16</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D20" s="4">
         <v>10.18</v>
       </c>
       <c r="E20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D21" s="4">
         <v>10.199999999999999</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="H21" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D22" s="7">
         <v>10.23</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D23" s="7">
         <v>10.25</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="18" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D24" s="7">
         <v>10.27</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D25" s="4">
         <v>10.3</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D26" s="4">
         <v>11.01</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -1086,166 +1095,166 @@
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D27" s="4">
         <v>11.03</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C28" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D28" s="7">
         <v>11.06</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D29" s="7">
         <v>11.08</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D30" s="10">
         <v>11.1</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H30" s="10"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C31" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D31" s="4">
         <v>11.13</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C32" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D32" s="4">
         <v>11.15</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C33" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D33" s="4">
         <v>11.17</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F33" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G33" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G33" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="H33" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C34" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D34" s="7">
         <v>11.2</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C35" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D35" s="7">
         <v>11.22</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D36" s="10">
         <v>11.24</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
@@ -1253,16 +1262,16 @@
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D37" s="4">
         <v>11.27</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
@@ -1270,16 +1279,16 @@
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D38" s="4">
         <v>11.29</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
@@ -1287,16 +1296,16 @@
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="18" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D39" s="4">
         <v>12.01</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
@@ -1304,83 +1313,83 @@
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C40" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D40" s="7">
         <v>12.04</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C41" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D41" s="7">
         <v>12.06</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C42" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D42" s="7">
         <v>12.08</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D43" s="4">
         <v>12.11</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D44" s="4">
         <v>12.13</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
@@ -1388,19 +1397,19 @@
     </row>
     <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B45" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="D45" s="4">
         <v>12.15</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
@@ -4273,5 +4282,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/classes/Intro-DS-F23/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E11B32F-CE70-F942-B0FC-008F60D25BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8397275-D2D6-2246-A08D-B7BBFAF65256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="70">
   <si>
     <t>Date</t>
   </si>
@@ -231,16 +231,19 @@
     <t>presy</t>
   </si>
   <si>
-    <t>Guest Speaker: Data Science for Public Health</t>
-  </si>
-  <si>
     <t xml:space="preserve">Guest Speaker: Visualizing Boston City Data </t>
   </si>
   <si>
-    <t>Guest Speaker: Analyzing the Electrical Grid</t>
-  </si>
-  <si>
     <t>NO CLASS - Personal Day</t>
+  </si>
+  <si>
+    <t>Guest Speaker: Data Science for Public Health, Henri Garrison-Desany</t>
+  </si>
+  <si>
+    <t>Guest Speaker: Analyzing the Electrical Grid, Adria Brooks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO CLASS - Everyone take a personal day </t>
   </si>
 </sst>
 </file>
@@ -324,7 +327,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -349,6 +352,18 @@
         <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.14999847407452621"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -362,7 +377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -402,6 +417,14 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -623,7 +646,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -761,7 +784,7 @@
         <v>9.18</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
@@ -784,7 +807,7 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" ht="28" x14ac:dyDescent="0.15">
       <c r="B9" s="16" t="s">
         <v>57</v>
       </c>
@@ -795,7 +818,7 @@
         <v>9.2200000000000006</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
@@ -1040,7 +1063,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="18" t="s">
         <v>57</v>
       </c>
@@ -1051,7 +1074,7 @@
         <v>10.27</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>32</v>
@@ -1094,7 +1117,7 @@
       <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="22" t="s">
         <v>40</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -1115,6 +1138,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="23"/>
       <c r="C28" s="7" t="s">
         <v>53</v>
       </c>
@@ -1129,6 +1153,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="23"/>
       <c r="C29" s="7" t="s">
         <v>51</v>
       </c>
@@ -1146,7 +1171,7 @@
       <c r="A30" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="22" t="s">
         <v>58</v>
       </c>
       <c r="C30" s="10" t="s">
@@ -1165,6 +1190,7 @@
       <c r="H30" s="10"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="23"/>
       <c r="C31" s="4" t="s">
         <v>53</v>
       </c>
@@ -1183,6 +1209,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="23"/>
       <c r="C32" s="4" t="s">
         <v>51</v>
       </c>
@@ -1199,6 +1226,7 @@
       <c r="H32" s="4"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="23"/>
       <c r="C33" s="4" t="s">
         <v>52</v>
       </c>
@@ -1219,6 +1247,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="23"/>
       <c r="C34" s="7" t="s">
         <v>53</v>
       </c>
@@ -1230,21 +1259,30 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C35" s="7" t="s">
+      <c r="A35" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="19">
         <v>11.22</v>
       </c>
-      <c r="E35" s="8" t="s">
-        <v>41</v>
-      </c>
+      <c r="E35" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="24" t="s">
         <v>59</v>
       </c>
       <c r="C36" s="10" t="s">
@@ -1261,7 +1299,7 @@
       <c r="H36" s="10"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="24" t="s">
         <v>40</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -1278,7 +1316,7 @@
       <c r="H37" s="4"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="24" t="s">
         <v>40</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -1294,8 +1332,8 @@
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="18" t="s">
+    <row r="39" spans="1:8" ht="28" x14ac:dyDescent="0.15">
+      <c r="B39" s="24" t="s">
         <v>57</v>
       </c>
       <c r="C39" s="4" t="s">
@@ -1312,6 +1350,7 @@
       <c r="H39" s="4"/>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="23"/>
       <c r="C40" s="7" t="s">
         <v>53</v>
       </c>
@@ -1326,6 +1365,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="23"/>
       <c r="C41" s="7" t="s">
         <v>51</v>
       </c>
@@ -1340,6 +1380,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="23"/>
       <c r="C42" s="7" t="s">
         <v>52</v>
       </c>
@@ -1357,7 +1398,7 @@
       <c r="A43" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="22" t="s">
         <v>40</v>
       </c>
       <c r="C43" s="4" t="s">

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/classes/Intro-DS-F23/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/classes/MATH113-CAIS105-F23/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8397275-D2D6-2246-A08D-B7BBFAF65256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D033607-1CE8-D24F-8FE8-D933F096C92A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,37 +44,21 @@
     <t>Reading</t>
   </si>
   <si>
-    <t>Welcome - Ice Breakers, Learning Goals, Worries, What is DS, examples, ethics</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ch 1 </t>
   </si>
   <si>
-    <t xml:space="preserve">Data - Vocab 
-Vis - Reading a graphic </t>
-  </si>
-  <si>
     <t>Ch 2</t>
   </si>
   <si>
     <t>hw1</t>
   </si>
   <si>
-    <t xml:space="preserve">Vis - Composing a graphic </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vis - Usefulness and wrong turns </t>
-  </si>
-  <si>
     <t xml:space="preserve">Mini-Project 1 </t>
   </si>
   <si>
     <t>q1</t>
   </si>
   <si>
-    <t xml:space="preserve">Intro to coding (variables, comp arch), R / R Studio / markdown </t>
-  </si>
-  <si>
     <t>Appendix B, D</t>
   </si>
   <si>
@@ -231,9 +215,6 @@
     <t>presy</t>
   </si>
   <si>
-    <t xml:space="preserve">Guest Speaker: Visualizing Boston City Data </t>
-  </si>
-  <si>
     <t>NO CLASS - Personal Day</t>
   </si>
   <si>
@@ -244,6 +225,24 @@
   </si>
   <si>
     <t xml:space="preserve">NO CLASS - Everyone take a personal day </t>
+  </si>
+  <si>
+    <t>Welcome - Who are we, What is DS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guest Speaker: Using Data for City Planning </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visualizations </t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Ch 8</t>
+  </si>
+  <si>
+    <t>Intro to coding with R</t>
   </si>
 </sst>
 </file>
@@ -377,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -422,9 +421,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -646,7 +642,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -661,13 +657,13 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -679,140 +675,140 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B2" s="6"/>
       <c r="C2" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D2" s="4">
         <v>9.06</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>4</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B3" s="6"/>
       <c r="C3" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D3" s="4">
         <v>9.08</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C4" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D4" s="7">
         <v>9.11</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="3"/>
       <c r="C5" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D5" s="7">
         <v>9.1300000000000008</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D6" s="7">
         <v>9.15</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="18" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D7" s="10">
         <v>9.18</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B8" s="16"/>
       <c r="C8" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D8" s="4">
         <v>9.1999999999999993</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" ht="28" x14ac:dyDescent="0.15">
       <c r="B9" s="16" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D9" s="4">
         <v>9.2200000000000006</v>
@@ -822,128 +818,128 @@
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D10" s="7">
         <v>9.25</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D11" s="7">
         <v>9.27</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D12" s="7">
         <v>9.2899999999999991</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D13" s="4">
         <v>10.02</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D14" s="4">
         <v>10.039999999999999</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D15" s="4">
         <v>10.06</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="18" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D16" s="10">
         <v>10.09</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
@@ -951,328 +947,322 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="18" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D17" s="7">
         <v>10.11</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="18" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D18" s="7">
         <v>10.130000000000001</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D19" s="4">
         <v>10.16</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D20" s="4">
         <v>10.18</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D21" s="4">
         <v>10.199999999999999</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D22" s="7">
         <v>10.23</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D23" s="7">
         <v>10.25</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="18" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D24" s="7">
         <v>10.27</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D25" s="4">
         <v>10.3</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="18" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D26" s="4">
         <v>11.01</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="22" t="s">
-        <v>40</v>
+      <c r="B27" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D27" s="4">
         <v>11.03</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="23"/>
       <c r="C28" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D28" s="7">
         <v>11.06</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="23"/>
       <c r="C29" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D29" s="7">
         <v>11.08</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D30" s="10">
         <v>11.1</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H30" s="10"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="23"/>
       <c r="C31" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D31" s="4">
         <v>11.13</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="23"/>
       <c r="C32" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D32" s="4">
         <v>11.15</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="23"/>
       <c r="C33" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D33" s="4">
         <v>11.17</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="23"/>
       <c r="C34" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D34" s="7">
         <v>11.2</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B35" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>54</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D35" s="19">
         <v>11.22</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F35" s="21"/>
       <c r="G35" s="21"/>
@@ -1280,157 +1270,154 @@
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B36" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>54</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D36" s="10">
         <v>11.24</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="24" t="s">
-        <v>40</v>
+      <c r="B37" s="18" t="s">
+        <v>35</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D37" s="4">
         <v>11.27</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="24" t="s">
-        <v>40</v>
+      <c r="B38" s="18" t="s">
+        <v>35</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D38" s="4">
         <v>11.29</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
     </row>
     <row r="39" spans="1:8" ht="28" x14ac:dyDescent="0.15">
-      <c r="B39" s="24" t="s">
-        <v>57</v>
+      <c r="B39" s="18" t="s">
+        <v>52</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D39" s="4">
         <v>12.01</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="23"/>
       <c r="C40" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D40" s="7">
         <v>12.04</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="23"/>
       <c r="C41" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D41" s="7">
         <v>12.06</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="23"/>
       <c r="C42" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D42" s="7">
         <v>12.08</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B43" s="22" t="s">
-        <v>40</v>
+        <v>59</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D43" s="4">
         <v>12.11</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="18" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D44" s="4">
         <v>12.13</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
@@ -1438,19 +1425,19 @@
     </row>
     <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="18" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D45" s="4">
         <v>12.15</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/classes/MATH113-CAIS105-F23/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D033607-1CE8-D24F-8FE8-D933F096C92A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D92894D-E001-B84C-A9F6-7407EEF3B20D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="74">
   <si>
     <t>Date</t>
   </si>
@@ -230,9 +230,6 @@
     <t>Welcome - Who are we, What is DS</t>
   </si>
   <si>
-    <t xml:space="preserve">Guest Speaker: Using Data for City Planning </t>
-  </si>
-  <si>
     <t xml:space="preserve">Visualizations </t>
   </si>
   <si>
@@ -243,6 +240,21 @@
   </si>
   <si>
     <t>Intro to coding with R</t>
+  </si>
+  <si>
+    <t>hw1, mp1</t>
+  </si>
+  <si>
+    <t>hw3, mp2</t>
+  </si>
+  <si>
+    <t>mp4</t>
+  </si>
+  <si>
+    <t>mp3</t>
+  </si>
+  <si>
+    <t>Guest Speaker: Data Meets Geography, Quin Molloy</t>
   </si>
 </sst>
 </file>
@@ -376,7 +388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -421,6 +433,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -639,7 +655,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H1000"/>
+  <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
@@ -686,7 +702,7 @@
       <c r="C2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="22">
         <v>9.06</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -703,14 +719,14 @@
       <c r="C3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="22">
         <v>9.08</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>5</v>
@@ -721,11 +737,11 @@
       <c r="C4" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="23">
         <v>9.11</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>4</v>
@@ -736,11 +752,11 @@
       <c r="C5" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="23">
         <v>9.1300000000000008</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>4</v>
@@ -753,7 +769,7 @@
       <c r="C6" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="23">
         <v>9.15</v>
       </c>
       <c r="E6" s="9" t="s">
@@ -763,7 +779,7 @@
         <v>7</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -776,7 +792,7 @@
       <c r="C7" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="24">
         <v>9.18</v>
       </c>
       <c r="E7" s="11" t="s">
@@ -791,11 +807,11 @@
       <c r="C8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="22">
         <v>9.1999999999999993</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>8</v>
@@ -810,11 +826,11 @@
       <c r="C9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="22">
         <v>9.2200000000000006</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
@@ -829,7 +845,7 @@
       <c r="C10" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="23">
         <v>9.25</v>
       </c>
       <c r="E10" s="8" t="s">
@@ -843,7 +859,7 @@
       <c r="C11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="23">
         <v>9.27</v>
       </c>
       <c r="E11" s="8" t="s">
@@ -857,7 +873,7 @@
       <c r="C12" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="23">
         <v>9.2899999999999991</v>
       </c>
       <c r="E12" s="8" t="s">
@@ -877,7 +893,7 @@
       <c r="C13" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="22">
         <v>10.02</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -893,7 +909,7 @@
       <c r="C14" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="22">
         <v>10.039999999999999</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -909,7 +925,7 @@
       <c r="C15" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="22">
         <v>10.06</v>
       </c>
       <c r="E15" s="5" t="s">
@@ -935,7 +951,7 @@
       <c r="C16" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="24">
         <v>10.09</v>
       </c>
       <c r="E16" s="11" t="s">
@@ -945,28 +961,28 @@
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="18" t="s">
         <v>35</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="23">
         <v>10.11</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="18" t="s">
         <v>35</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="23">
         <v>10.130000000000001</v>
       </c>
       <c r="E18" s="9" t="s">
@@ -976,14 +992,14 @@
         <v>20</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="22">
         <v>10.16</v>
       </c>
       <c r="E19" s="5" t="s">
@@ -995,11 +1011,11 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="22">
         <v>10.18</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -1011,11 +1027,11 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="22">
         <v>10.199999999999999</v>
       </c>
       <c r="E21" s="5" t="s">
@@ -1031,11 +1047,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="23">
         <v>10.23</v>
       </c>
       <c r="E22" s="8" t="s">
@@ -1045,11 +1061,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="23">
         <v>10.25</v>
       </c>
       <c r="E23" s="8" t="s">
@@ -1059,18 +1075,21 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="18" t="s">
         <v>52</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="23">
         <v>10.27</v>
       </c>
-      <c r="E24" s="14" t="s">
-        <v>62</v>
+      <c r="E24" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>27</v>
@@ -1079,30 +1098,28 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="22">
         <v>10.3</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="E25" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="18" t="s">
         <v>35</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="22">
         <v>11.01</v>
       </c>
       <c r="E26" s="15" t="s">
@@ -1110,20 +1127,22 @@
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H26" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="B27" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="22">
         <v>11.03</v>
       </c>
-      <c r="E27" s="15" t="s">
-        <v>29</v>
+      <c r="E27" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4" t="s">
@@ -1132,12 +1151,13 @@
       <c r="H27" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I27" s="14"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C28" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="23">
         <v>11.06</v>
       </c>
       <c r="E28" s="8" t="s">
@@ -1147,11 +1167,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="23">
         <v>11.08</v>
       </c>
       <c r="E29" s="8" t="s">
@@ -1161,7 +1181,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="18" t="s">
         <v>57</v>
       </c>
@@ -1171,7 +1191,7 @@
       <c r="C30" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="24">
         <v>11.1</v>
       </c>
       <c r="E30" s="11" t="s">
@@ -1183,11 +1203,11 @@
       </c>
       <c r="H30" s="10"/>
     </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C31" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="22">
         <v>11.13</v>
       </c>
       <c r="E31" s="5" t="s">
@@ -1201,11 +1221,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C32" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="22">
         <v>11.15</v>
       </c>
       <c r="E32" s="5" t="s">
@@ -1221,7 +1241,7 @@
       <c r="C33" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="22">
         <v>11.17</v>
       </c>
       <c r="E33" s="5" t="s">
@@ -1241,7 +1261,7 @@
       <c r="C34" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="23">
         <v>11.2</v>
       </c>
       <c r="E34" s="8" t="s">
@@ -1258,7 +1278,7 @@
       <c r="C35" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="19">
+      <c r="D35" s="25">
         <v>11.22</v>
       </c>
       <c r="E35" s="20" t="s">
@@ -1278,7 +1298,7 @@
       <c r="C36" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="24">
         <v>11.24</v>
       </c>
       <c r="E36" s="11" t="s">
@@ -1295,7 +1315,7 @@
       <c r="C37" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="22">
         <v>11.27</v>
       </c>
       <c r="E37" s="15" t="s">
@@ -1312,7 +1332,7 @@
       <c r="C38" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="22">
         <v>11.29</v>
       </c>
       <c r="E38" s="15" t="s">
@@ -1320,7 +1340,9 @@
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
+      <c r="H38" s="4" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="39" spans="1:8" ht="28" x14ac:dyDescent="0.15">
       <c r="B39" s="18" t="s">
@@ -1329,7 +1351,7 @@
       <c r="C39" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="22">
         <v>12.01</v>
       </c>
       <c r="E39" s="13" t="s">
@@ -1343,7 +1365,7 @@
       <c r="C40" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" s="23">
         <v>12.04</v>
       </c>
       <c r="E40" s="8" t="s">
@@ -1357,7 +1379,7 @@
       <c r="C41" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="23">
         <v>12.06</v>
       </c>
       <c r="E41" s="8" t="s">
@@ -1371,7 +1393,7 @@
       <c r="C42" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D42" s="23">
         <v>12.08</v>
       </c>
       <c r="E42" s="8" t="s">
@@ -1391,7 +1413,7 @@
       <c r="C43" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="22">
         <v>12.11</v>
       </c>
       <c r="E43" s="15" t="s">
@@ -1413,7 +1435,7 @@
       <c r="C44" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="22">
         <v>12.13</v>
       </c>
       <c r="E44" s="15" t="s">
@@ -1433,7 +1455,7 @@
       <c r="C45" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="22">
         <v>12.15</v>
       </c>
       <c r="E45" s="15" t="s">

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/classes/MATH113-CAIS105-F23/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D92894D-E001-B84C-A9F6-7407EEF3B20D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C338EDFF-D690-3D42-9B7D-C5559B42CE03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8280" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="1" r:id="rId1"/>
@@ -658,7 +658,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1075,10 +1075,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="18" t="s">
-        <v>52</v>
-      </c>
+    <row r="24" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="18"/>
       <c r="C24" s="7" t="s">
         <v>47</v>
       </c>
@@ -1099,6 +1097,9 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="18" t="s">
+        <v>35</v>
+      </c>
       <c r="C25" s="4" t="s">
         <v>48</v>
       </c>
@@ -1133,7 +1134,7 @@
     </row>
     <row r="27" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="B27" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>47</v>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/classes/MATH113-CAIS105-F23/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C338EDFF-D690-3D42-9B7D-C5559B42CE03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728D3455-6C85-CE47-823C-4A8B8910DB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8280" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="74">
   <si>
     <t>Date</t>
   </si>
@@ -338,7 +338,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -375,6 +375,12 @@
         <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor rgb="FFC9DAF8"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -388,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -437,6 +443,10 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -657,8 +667,8 @@
   </sheetPr>
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1128,9 +1138,7 @@
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="4" t="s">
-        <v>72</v>
-      </c>
+      <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="B27" s="7" t="s">
@@ -1155,17 +1163,23 @@
       <c r="I27" s="14"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="18" t="s">
+        <v>35</v>
+      </c>
       <c r="C28" s="7" t="s">
         <v>48</v>
       </c>
       <c r="D28" s="23">
         <v>11.06</v>
       </c>
-      <c r="E28" s="8" t="s">
-        <v>31</v>
+      <c r="E28" s="26" t="s">
+        <v>29</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>32</v>
+      </c>
+      <c r="H28" s="27" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/classes/MATH113-CAIS105-F23/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728D3455-6C85-CE47-823C-4A8B8910DB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03653F5-BEBE-144C-98CE-F02894C69C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="73">
   <si>
     <t>Date</t>
   </si>
@@ -141,9 +141,6 @@
   </si>
   <si>
     <t>proj</t>
-  </si>
-  <si>
-    <t>Analysis Process</t>
   </si>
   <si>
     <t>Mini-Project 4</t>
@@ -394,7 +391,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -447,6 +444,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -667,8 +667,8 @@
   </sheetPr>
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -683,13 +683,13 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -701,22 +701,22 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B2" s="6"/>
       <c r="C2" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2" s="22">
         <v>9.06</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>3</v>
@@ -727,16 +727,16 @@
     <row r="3" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B3" s="6"/>
       <c r="C3" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3" s="22">
         <v>9.08</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>5</v>
@@ -745,13 +745,13 @@
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C4" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" s="23">
         <v>9.11</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>4</v>
@@ -760,13 +760,13 @@
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="3"/>
       <c r="C5" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" s="23">
         <v>9.1300000000000008</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>4</v>
@@ -777,7 +777,7 @@
         <v>35</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" s="23">
         <v>9.15</v>
@@ -789,24 +789,24 @@
         <v>7</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" s="24">
         <v>9.18</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
@@ -815,13 +815,13 @@
     <row r="8" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B8" s="16"/>
       <c r="C8" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" s="22">
         <v>9.1999999999999993</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>8</v>
@@ -831,16 +831,16 @@
     </row>
     <row r="9" spans="1:8" ht="28" x14ac:dyDescent="0.15">
       <c r="B9" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" s="22">
         <v>9.2200000000000006</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
@@ -853,7 +853,7 @@
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" s="23">
         <v>9.25</v>
@@ -867,7 +867,7 @@
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="23">
         <v>9.27</v>
@@ -881,7 +881,7 @@
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" s="23">
         <v>9.2899999999999991</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D13" s="22">
         <v>10.02</v>
@@ -917,7 +917,7 @@
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14" s="22">
         <v>10.039999999999999</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="22">
         <v>10.06</v>
@@ -953,13 +953,13 @@
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="24">
         <v>10.09</v>
@@ -976,7 +976,7 @@
         <v>35</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="23">
         <v>10.11</v>
@@ -990,7 +990,7 @@
         <v>35</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D18" s="23">
         <v>10.130000000000001</v>
@@ -1002,12 +1002,12 @@
         <v>20</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D19" s="22">
         <v>10.16</v>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="22">
         <v>10.18</v>
@@ -1039,7 +1039,7 @@
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D21" s="22">
         <v>10.199999999999999</v>
@@ -1059,7 +1059,7 @@
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D22" s="23">
         <v>10.23</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D23" s="23">
         <v>10.25</v>
@@ -1088,7 +1088,7 @@
     <row r="24" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="18"/>
       <c r="C24" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D24" s="23">
         <v>10.27</v>
@@ -1111,7 +1111,7 @@
         <v>35</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D25" s="22">
         <v>10.3</v>
@@ -1128,7 +1128,7 @@
         <v>35</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D26" s="22">
         <v>11.01</v>
@@ -1142,16 +1142,16 @@
     </row>
     <row r="27" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="B27" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D27" s="22">
         <v>11.03</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4" t="s">
@@ -1167,7 +1167,7 @@
         <v>35</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D28" s="23">
         <v>11.06</v>
@@ -1179,12 +1179,12 @@
         <v>32</v>
       </c>
       <c r="H28" s="27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D29" s="23">
         <v>11.08</v>
@@ -1198,13 +1198,13 @@
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D30" s="24">
         <v>11.1</v>
@@ -1220,7 +1220,7 @@
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C31" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D31" s="22">
         <v>11.13</v>
@@ -1238,7 +1238,7 @@
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C32" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D32" s="22">
         <v>11.15</v>
@@ -1254,7 +1254,7 @@
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C33" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D33" s="22">
         <v>11.17</v>
@@ -1273,31 +1273,34 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="18" t="s">
+        <v>43</v>
+      </c>
       <c r="C34" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D34" s="23">
         <v>11.2</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="28" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D35" s="25">
         <v>11.22</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F35" s="21"/>
       <c r="G35" s="21"/>
@@ -1305,13 +1308,13 @@
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D36" s="24">
         <v>11.24</v>
@@ -1328,13 +1331,13 @@
         <v>35</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D37" s="22">
         <v>11.27</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
@@ -1345,32 +1348,32 @@
         <v>35</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D38" s="22">
         <v>11.29</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="28" x14ac:dyDescent="0.15">
       <c r="B39" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D39" s="22">
         <v>12.01</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
@@ -1378,83 +1381,83 @@
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C40" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D40" s="23">
         <v>12.04</v>
       </c>
       <c r="E40" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C41" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D41" s="23">
         <v>12.06</v>
       </c>
       <c r="E41" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C42" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D42" s="23">
         <v>12.08</v>
       </c>
       <c r="E42" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D43" s="22">
         <v>12.11</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B44" s="18" t="s">
         <v>35</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D44" s="22">
         <v>12.13</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
@@ -1462,19 +1465,19 @@
     </row>
     <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D45" s="22">
         <v>12.15</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/classes/MATH113-CAIS105-F23/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03653F5-BEBE-144C-98CE-F02894C69C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F106E127-2837-A54F-871E-F011C454FEEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="74">
   <si>
     <t>Date</t>
   </si>
@@ -252,6 +252,9 @@
   </si>
   <si>
     <t>Guest Speaker: Data Meets Geography, Quin Molloy</t>
+  </si>
+  <si>
+    <t>proj-proposal</t>
   </si>
 </sst>
 </file>
@@ -391,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -444,9 +447,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -667,8 +667,8 @@
   </sheetPr>
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1282,7 +1282,7 @@
       <c r="D34" s="23">
         <v>11.2</v>
       </c>
-      <c r="E34" s="28" t="s">
+      <c r="E34" s="9" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1341,7 +1341,9 @@
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
+      <c r="H37" s="4" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="18" t="s">

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/classes/MATH113-CAIS105-F23/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F106E127-2837-A54F-871E-F011C454FEEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA69560-3842-B642-B785-DF9FBF4933B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="75">
   <si>
     <t>Date</t>
   </si>
@@ -255,6 +255,9 @@
   </si>
   <si>
     <t>proj-proposal</t>
+  </si>
+  <si>
+    <t>proj-in-prog</t>
   </si>
 </sst>
 </file>
@@ -668,7 +671,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1394,6 +1397,9 @@
       <c r="F40" s="7" t="s">
         <v>38</v>
       </c>
+      <c r="H40" s="18" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C41" s="7" t="s">

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/classes/MATH113-CAIS105-F23/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA69560-3842-B642-B785-DF9FBF4933B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412B5F24-7C6D-7D4E-8206-6F8332A7659E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="76">
   <si>
     <t>Date</t>
   </si>
@@ -258,6 +258,9 @@
   </si>
   <si>
     <t>proj-in-prog</t>
+  </si>
+  <si>
+    <t>Final Project Work Session</t>
   </si>
 </sst>
 </file>
@@ -671,7 +674,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1443,7 +1446,7 @@
         <v>12.11</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/classes/MATH113-CAIS105-F23/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412B5F24-7C6D-7D4E-8206-6F8332A7659E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3750AB28-82D4-9E4B-9315-F083B806B060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="42820" yWindow="4020" windowWidth="28600" windowHeight="21880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="72">
   <si>
     <t>Date</t>
   </si>
@@ -152,18 +152,6 @@
     <t>Ch 14</t>
   </si>
   <si>
-    <t xml:space="preserve">Advanced Topics - Databases / SQL </t>
-  </si>
-  <si>
-    <t>Ch 15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Advanced Topics - ML / AI </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ch 11/12 </t>
-  </si>
-  <si>
     <t xml:space="preserve">proj </t>
   </si>
   <si>
@@ -257,10 +245,10 @@
     <t>proj-proposal</t>
   </si>
   <si>
-    <t>proj-in-prog</t>
-  </si>
-  <si>
     <t>Final Project Work Session</t>
+  </si>
+  <si>
+    <t>mp4, proj-in-prog</t>
   </si>
 </sst>
 </file>
@@ -400,7 +388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -453,6 +441,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -674,7 +665,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -689,13 +680,13 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -707,22 +698,22 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B2" s="6"/>
       <c r="C2" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D2" s="22">
         <v>9.06</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>3</v>
@@ -733,16 +724,16 @@
     <row r="3" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B3" s="6"/>
       <c r="C3" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D3" s="22">
         <v>9.08</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>5</v>
@@ -751,13 +742,13 @@
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C4" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D4" s="23">
         <v>9.11</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>4</v>
@@ -766,13 +757,13 @@
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="3"/>
       <c r="C5" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D5" s="23">
         <v>9.1300000000000008</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>4</v>
@@ -783,7 +774,7 @@
         <v>35</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D6" s="23">
         <v>9.15</v>
@@ -795,24 +786,24 @@
         <v>7</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D7" s="24">
         <v>9.18</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
@@ -821,13 +812,13 @@
     <row r="8" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B8" s="16"/>
       <c r="C8" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D8" s="22">
         <v>9.1999999999999993</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>8</v>
@@ -837,16 +828,16 @@
     </row>
     <row r="9" spans="1:8" ht="28" x14ac:dyDescent="0.15">
       <c r="B9" s="16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D9" s="22">
         <v>9.2200000000000006</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
@@ -859,7 +850,7 @@
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D10" s="23">
         <v>9.25</v>
@@ -873,7 +864,7 @@
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D11" s="23">
         <v>9.27</v>
@@ -887,7 +878,7 @@
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D12" s="23">
         <v>9.2899999999999991</v>
@@ -907,7 +898,7 @@
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D13" s="22">
         <v>10.02</v>
@@ -923,7 +914,7 @@
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D14" s="22">
         <v>10.039999999999999</v>
@@ -939,7 +930,7 @@
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D15" s="22">
         <v>10.06</v>
@@ -959,13 +950,13 @@
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D16" s="24">
         <v>10.09</v>
@@ -982,7 +973,7 @@
         <v>35</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D17" s="23">
         <v>10.11</v>
@@ -996,7 +987,7 @@
         <v>35</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D18" s="23">
         <v>10.130000000000001</v>
@@ -1008,12 +999,12 @@
         <v>20</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D19" s="22">
         <v>10.16</v>
@@ -1029,7 +1020,7 @@
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D20" s="22">
         <v>10.18</v>
@@ -1045,7 +1036,7 @@
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D21" s="22">
         <v>10.199999999999999</v>
@@ -1065,7 +1056,7 @@
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D22" s="23">
         <v>10.23</v>
@@ -1079,7 +1070,7 @@
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D23" s="23">
         <v>10.25</v>
@@ -1094,7 +1085,7 @@
     <row r="24" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="18"/>
       <c r="C24" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D24" s="23">
         <v>10.27</v>
@@ -1117,7 +1108,7 @@
         <v>35</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D25" s="22">
         <v>10.3</v>
@@ -1134,7 +1125,7 @@
         <v>35</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D26" s="22">
         <v>11.01</v>
@@ -1148,16 +1139,16 @@
     </row>
     <row r="27" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="B27" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D27" s="22">
         <v>11.03</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4" t="s">
@@ -1173,7 +1164,7 @@
         <v>35</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D28" s="23">
         <v>11.06</v>
@@ -1185,12 +1176,12 @@
         <v>32</v>
       </c>
       <c r="H28" s="27" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D29" s="23">
         <v>11.08</v>
@@ -1204,13 +1195,13 @@
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D30" s="24">
         <v>11.1</v>
@@ -1226,7 +1217,7 @@
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C31" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D31" s="22">
         <v>11.13</v>
@@ -1244,7 +1235,7 @@
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C32" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D32" s="22">
         <v>11.15</v>
@@ -1260,7 +1251,7 @@
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C33" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D33" s="22">
         <v>11.17</v>
@@ -1280,10 +1271,10 @@
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="D34" s="23">
         <v>11.2</v>
@@ -1294,19 +1285,19 @@
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="18" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D35" s="25">
         <v>11.22</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F35" s="21"/>
       <c r="G35" s="21"/>
@@ -1314,13 +1305,13 @@
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="18" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D36" s="24">
         <v>11.24</v>
@@ -1337,7 +1328,7 @@
         <v>35</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D37" s="22">
         <v>11.27</v>
@@ -1348,7 +1339,7 @@
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1356,7 +1347,7 @@
         <v>35</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D38" s="22">
         <v>11.29</v>
@@ -1367,108 +1358,110 @@
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="28" x14ac:dyDescent="0.15">
       <c r="B39" s="18" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D39" s="22">
         <v>12.01</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="18" t="s">
+        <v>35</v>
+      </c>
       <c r="C40" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D40" s="23">
         <v>12.04</v>
       </c>
-      <c r="E40" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>38</v>
-      </c>
+      <c r="E40" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F40" s="7"/>
       <c r="H40" s="18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C41" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D41" s="23">
         <v>12.06</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="18" t="s">
+        <v>35</v>
+      </c>
       <c r="C42" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D42" s="23">
         <v>12.08</v>
       </c>
-      <c r="E42" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="E42" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F42" s="7"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="18" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D43" s="22">
         <v>12.11</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="18" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B44" s="18" t="s">
         <v>35</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D44" s="22">
         <v>12.13</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
@@ -1476,19 +1469,19 @@
     </row>
     <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="18" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D45" s="22">
         <v>12.15</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/classes/MATH113-CAIS105-F23/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3750AB28-82D4-9E4B-9315-F083B806B060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E043AA31-916A-0048-A3D8-2899D1DEF373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42820" yWindow="4020" windowWidth="28600" windowHeight="21880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="1" r:id="rId1"/>
@@ -248,7 +248,7 @@
     <t>Final Project Work Session</t>
   </si>
   <si>
-    <t>mp4, proj-in-prog</t>
+    <t>proj-in-prog</t>
   </si>
 </sst>
 </file>
@@ -388,7 +388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -441,9 +441,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -665,7 +662,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1393,10 +1390,13 @@
       </c>
       <c r="F40" s="7"/>
       <c r="H40" s="18" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="18" t="s">
+        <v>35</v>
+      </c>
       <c r="C41" s="7" t="s">
         <v>41</v>
       </c>
@@ -1404,31 +1404,30 @@
         <v>12.06</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>38</v>
+        <v>70</v>
+      </c>
+      <c r="F41" s="7"/>
+      <c r="H41" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="18" t="s">
-        <v>35</v>
-      </c>
+      <c r="B42" s="18"/>
       <c r="C42" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D42" s="23">
         <v>12.08</v>
       </c>
-      <c r="E42" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="F42" s="7"/>
+      <c r="E42" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="18" t="s">
-        <v>54</v>
-      </c>
+      <c r="A43" s="18"/>
       <c r="B43" s="7" t="s">
         <v>35</v>
       </c>
